--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Properties/exchcodemappings.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Properties/exchcodemappings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Properties\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACF3B8-9888-40E5-81CE-181B6C11A7F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="135" windowWidth="15900" windowHeight="11640"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -3814,8 +3820,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4357,6 +4363,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4404,7 +4413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4436,9 +4445,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4470,6 +4497,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4645,7 +4690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4653,7 +4698,7 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -4663,7 +4708,7 @@
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1262</v>
       </c>
@@ -4673,7 +4718,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1263</v>
       </c>
@@ -4683,7 +4728,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4703,7 +4748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4723,7 +4768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4743,7 +4788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4763,7 +4808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4783,7 +4828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4803,7 +4848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -4823,7 +4868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -4843,7 +4888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -4863,7 +4908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4903,7 +4948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -4923,7 +4968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4943,7 +4988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4963,7 +5008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4983,7 +5028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5003,7 +5048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -5023,7 +5068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -5043,7 +5088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -5063,7 +5108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5083,7 +5128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -5103,7 +5148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5123,7 +5168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -5143,7 +5188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -5163,7 +5208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -5183,7 +5228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -5203,7 +5248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -5223,7 +5268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -5243,7 +5288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -5263,7 +5308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -5283,7 +5328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -5303,7 +5348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -5323,7 +5368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -5343,7 +5388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -5363,7 +5408,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -5383,7 +5428,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -5403,7 +5448,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -5423,7 +5468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -5443,7 +5488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -5463,7 +5508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -5483,7 +5528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -5503,7 +5548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -5523,7 +5568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -5543,7 +5588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -5563,7 +5608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
@@ -5583,7 +5628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
@@ -5603,7 +5648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
@@ -5623,7 +5668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>116</v>
       </c>
@@ -5643,7 +5688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -5663,7 +5708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>122</v>
       </c>
@@ -5683,7 +5728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>126</v>
       </c>
@@ -5703,7 +5748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -5723,7 +5768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -5743,7 +5788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -5763,7 +5808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -5783,7 +5828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -5803,7 +5848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
@@ -5823,7 +5868,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -5843,7 +5888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
@@ -5863,7 +5908,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
@@ -5883,7 +5928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>159</v>
       </c>
@@ -5903,7 +5948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
@@ -5923,7 +5968,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>165</v>
       </c>
@@ -5943,7 +5988,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>168</v>
       </c>
@@ -5963,7 +6008,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>171</v>
       </c>
@@ -5983,7 +6028,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>171</v>
       </c>
@@ -6003,7 +6048,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
@@ -6023,7 +6068,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
@@ -6043,7 +6088,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>183</v>
       </c>
@@ -6063,7 +6108,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>186</v>
       </c>
@@ -6083,7 +6128,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>190</v>
       </c>
@@ -6103,7 +6148,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>194</v>
       </c>
@@ -6123,7 +6168,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>198</v>
       </c>
@@ -6143,7 +6188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>201</v>
       </c>
@@ -6163,7 +6208,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
@@ -6183,7 +6228,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>207</v>
       </c>
@@ -6203,7 +6248,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>207</v>
       </c>
@@ -6223,7 +6268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>213</v>
       </c>
@@ -6243,7 +6288,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>216</v>
       </c>
@@ -6263,7 +6308,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>216</v>
       </c>
@@ -6283,7 +6328,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>223</v>
       </c>
@@ -6303,7 +6348,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>226</v>
       </c>
@@ -6323,7 +6368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>229</v>
       </c>
@@ -6343,7 +6388,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>232</v>
       </c>
@@ -6363,7 +6408,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>235</v>
       </c>
@@ -6383,7 +6428,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>235</v>
       </c>
@@ -6403,7 +6448,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>235</v>
       </c>
@@ -6423,7 +6468,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>247</v>
       </c>
@@ -6443,7 +6488,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>251</v>
       </c>
@@ -6463,7 +6508,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>255</v>
       </c>
@@ -6483,7 +6528,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>259</v>
       </c>
@@ -6503,7 +6548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>263</v>
       </c>
@@ -6523,7 +6568,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>266</v>
       </c>
@@ -6543,7 +6588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>270</v>
       </c>
@@ -6563,7 +6608,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>274</v>
       </c>
@@ -6583,7 +6628,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>276</v>
       </c>
@@ -6603,7 +6648,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>279</v>
       </c>
@@ -6623,7 +6668,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>283</v>
       </c>
@@ -6643,7 +6688,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
@@ -6663,7 +6708,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>274</v>
       </c>
@@ -6683,7 +6728,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>288</v>
       </c>
@@ -6703,7 +6748,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>274</v>
       </c>
@@ -6723,7 +6768,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>293</v>
       </c>
@@ -6743,7 +6788,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>297</v>
       </c>
@@ -6763,7 +6808,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>297</v>
       </c>
@@ -6783,7 +6828,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>297</v>
       </c>
@@ -6803,7 +6848,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>297</v>
       </c>
@@ -6823,7 +6868,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>297</v>
       </c>
@@ -6843,7 +6888,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>274</v>
       </c>
@@ -6863,7 +6908,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>274</v>
       </c>
@@ -6883,7 +6928,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>274</v>
       </c>
@@ -6903,7 +6948,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
@@ -6923,7 +6968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>274</v>
       </c>
@@ -6943,7 +6988,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>274</v>
       </c>
@@ -6963,7 +7008,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>274</v>
       </c>
@@ -6983,7 +7028,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>321</v>
       </c>
@@ -7003,7 +7048,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>325</v>
       </c>
@@ -7023,7 +7068,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>274</v>
       </c>
@@ -7043,7 +7088,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>330</v>
       </c>
@@ -7063,7 +7108,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>330</v>
       </c>
@@ -7083,7 +7128,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>330</v>
       </c>
@@ -7103,7 +7148,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>330</v>
       </c>
@@ -7123,7 +7168,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>330</v>
       </c>
@@ -7143,7 +7188,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>330</v>
       </c>
@@ -7163,7 +7208,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>274</v>
       </c>
@@ -7183,7 +7228,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>274</v>
       </c>
@@ -7203,7 +7248,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>274</v>
       </c>
@@ -7223,7 +7268,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>274</v>
       </c>
@@ -7243,7 +7288,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>274</v>
       </c>
@@ -7263,7 +7308,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>274</v>
       </c>
@@ -7283,7 +7328,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>274</v>
       </c>
@@ -7303,7 +7348,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>274</v>
       </c>
@@ -7323,7 +7368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>274</v>
       </c>
@@ -7343,7 +7388,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>274</v>
       </c>
@@ -7363,7 +7408,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>364</v>
       </c>
@@ -7383,7 +7428,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>368</v>
       </c>
@@ -7403,7 +7448,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
@@ -7423,7 +7468,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>274</v>
       </c>
@@ -7443,7 +7488,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>274</v>
       </c>
@@ -7463,7 +7508,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>274</v>
       </c>
@@ -7483,7 +7528,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>274</v>
       </c>
@@ -7503,7 +7548,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>274</v>
       </c>
@@ -7523,7 +7568,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>274</v>
       </c>
@@ -7543,7 +7588,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>274</v>
       </c>
@@ -7563,7 +7608,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>384</v>
       </c>
@@ -7583,7 +7628,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>388</v>
       </c>
@@ -7603,7 +7648,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>388</v>
       </c>
@@ -7623,7 +7668,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -7643,7 +7688,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>388</v>
       </c>
@@ -7663,7 +7708,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>388</v>
       </c>
@@ -7683,7 +7728,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>388</v>
       </c>
@@ -7703,7 +7748,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>388</v>
       </c>
@@ -7723,7 +7768,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>388</v>
       </c>
@@ -7743,7 +7788,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>388</v>
       </c>
@@ -7763,7 +7808,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>388</v>
       </c>
@@ -7783,7 +7828,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>388</v>
       </c>
@@ -7803,7 +7848,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>388</v>
       </c>
@@ -7823,7 +7868,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>388</v>
       </c>
@@ -7843,7 +7888,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>430</v>
       </c>
@@ -7863,7 +7908,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>274</v>
       </c>
@@ -7883,7 +7928,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>274</v>
       </c>
@@ -7903,7 +7948,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>274</v>
       </c>
@@ -7923,7 +7968,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>437</v>
       </c>
@@ -7943,7 +7988,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>274</v>
       </c>
@@ -7963,7 +8008,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>274</v>
       </c>
@@ -7983,7 +8028,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>274</v>
       </c>
@@ -8003,7 +8048,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>274</v>
       </c>
@@ -8023,7 +8068,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>274</v>
       </c>
@@ -8043,7 +8088,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -8063,7 +8108,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>274</v>
       </c>
@@ -8083,7 +8128,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>450</v>
       </c>
@@ -8103,7 +8148,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>274</v>
       </c>
@@ -8123,7 +8168,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>274</v>
       </c>
@@ -8143,7 +8188,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>455</v>
       </c>
@@ -8163,7 +8208,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>274</v>
       </c>
@@ -8183,7 +8228,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>274</v>
       </c>
@@ -8203,7 +8248,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>274</v>
       </c>
@@ -8223,7 +8268,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>462</v>
       </c>
@@ -8243,7 +8288,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>466</v>
       </c>
@@ -8263,7 +8308,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>469</v>
       </c>
@@ -8283,7 +8328,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>469</v>
       </c>
@@ -8303,7 +8348,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>469</v>
       </c>
@@ -8323,7 +8368,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>469</v>
       </c>
@@ -8343,7 +8388,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>469</v>
       </c>
@@ -8363,7 +8408,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>469</v>
       </c>
@@ -8383,7 +8428,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>469</v>
       </c>
@@ -8403,7 +8448,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>469</v>
       </c>
@@ -8423,7 +8468,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>469</v>
       </c>
@@ -8443,7 +8488,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>469</v>
       </c>
@@ -8463,7 +8508,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>469</v>
       </c>
@@ -8483,7 +8528,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>469</v>
       </c>
@@ -8503,7 +8548,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>469</v>
       </c>
@@ -8523,7 +8568,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>469</v>
       </c>
@@ -8543,7 +8588,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>508</v>
       </c>
@@ -8563,7 +8608,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>508</v>
       </c>
@@ -8583,7 +8628,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>274</v>
       </c>
@@ -8603,7 +8648,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>274</v>
       </c>
@@ -8623,7 +8668,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>274</v>
       </c>
@@ -8643,7 +8688,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>274</v>
       </c>
@@ -8663,7 +8708,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>274</v>
       </c>
@@ -8683,7 +8728,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>274</v>
       </c>
@@ -8703,7 +8748,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>274</v>
       </c>
@@ -8723,7 +8768,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>524</v>
       </c>
@@ -8743,7 +8788,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>528</v>
       </c>
@@ -8763,7 +8808,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>531</v>
       </c>
@@ -8783,7 +8828,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>534</v>
       </c>
@@ -8803,7 +8848,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>534</v>
       </c>
@@ -8823,7 +8868,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>274</v>
       </c>
@@ -8843,7 +8888,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>274</v>
       </c>
@@ -8863,7 +8908,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>274</v>
       </c>
@@ -8883,7 +8928,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>274</v>
       </c>
@@ -8903,7 +8948,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>274</v>
       </c>
@@ -8923,7 +8968,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>274</v>
       </c>
@@ -8943,7 +8988,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>274</v>
       </c>
@@ -8963,7 +9008,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>274</v>
       </c>
@@ -8983,7 +9028,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>274</v>
       </c>
@@ -9003,7 +9048,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>274</v>
       </c>
@@ -9023,7 +9068,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>550</v>
       </c>
@@ -9043,7 +9088,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>550</v>
       </c>
@@ -9063,7 +9108,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>274</v>
       </c>
@@ -9083,7 +9128,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>274</v>
       </c>
@@ -9103,7 +9148,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>274</v>
       </c>
@@ -9123,7 +9168,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>274</v>
       </c>
@@ -9143,7 +9188,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>274</v>
       </c>
@@ -9163,7 +9208,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>274</v>
       </c>
@@ -9183,7 +9228,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>274</v>
       </c>
@@ -9203,7 +9248,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>274</v>
       </c>
@@ -9223,7 +9268,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>274</v>
       </c>
@@ -9243,7 +9288,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>274</v>
       </c>
@@ -9263,7 +9308,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>569</v>
       </c>
@@ -9283,7 +9328,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>274</v>
       </c>
@@ -9303,7 +9348,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>274</v>
       </c>
@@ -9323,7 +9368,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>274</v>
       </c>
@@ -9343,7 +9388,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>274</v>
       </c>
@@ -9363,7 +9408,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>274</v>
       </c>
@@ -9383,7 +9428,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>274</v>
       </c>
@@ -9403,7 +9448,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>274</v>
       </c>
@@ -9423,7 +9468,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>274</v>
       </c>
@@ -9443,7 +9488,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>274</v>
       </c>
@@ -9463,7 +9508,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>274</v>
       </c>
@@ -9483,7 +9528,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>588</v>
       </c>
@@ -9503,7 +9548,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>592</v>
       </c>
@@ -9523,7 +9568,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>596</v>
       </c>
@@ -9543,7 +9588,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>274</v>
       </c>
@@ -9563,7 +9608,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>274</v>
       </c>
@@ -9583,7 +9628,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>274</v>
       </c>
@@ -9603,7 +9648,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>602</v>
       </c>
@@ -9623,7 +9668,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>274</v>
       </c>
@@ -9643,7 +9688,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>274</v>
       </c>
@@ -9663,7 +9708,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>608</v>
       </c>
@@ -9683,7 +9728,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>274</v>
       </c>
@@ -9703,7 +9748,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>612</v>
       </c>
@@ -9723,7 +9768,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>616</v>
       </c>
@@ -9743,7 +9788,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>616</v>
       </c>
@@ -9763,7 +9808,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>616</v>
       </c>
@@ -9783,7 +9828,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>274</v>
       </c>
@@ -9803,7 +9848,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>274</v>
       </c>
@@ -9823,7 +9868,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>274</v>
       </c>
@@ -9843,7 +9888,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>633</v>
       </c>
@@ -9863,7 +9908,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>274</v>
       </c>
@@ -9883,7 +9928,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>274</v>
       </c>
@@ -9903,7 +9948,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -9923,7 +9968,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
@@ -9943,7 +9988,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>274</v>
       </c>
@@ -9963,7 +10008,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>645</v>
       </c>
@@ -9983,7 +10028,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>274</v>
       </c>
@@ -10003,7 +10048,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>649</v>
       </c>
@@ -10023,7 +10068,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>653</v>
       </c>
@@ -10043,7 +10088,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>657</v>
       </c>
@@ -10063,7 +10108,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>659</v>
       </c>
@@ -10083,7 +10128,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>662</v>
       </c>
@@ -10103,7 +10148,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>665</v>
       </c>
@@ -10123,7 +10168,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>669</v>
       </c>
@@ -10143,7 +10188,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>672</v>
       </c>
@@ -10163,7 +10208,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>675</v>
       </c>
@@ -10183,7 +10228,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>678</v>
       </c>
@@ -10203,7 +10248,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>678</v>
       </c>
@@ -10223,7 +10268,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>678</v>
       </c>
@@ -10243,7 +10288,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>687</v>
       </c>
@@ -10263,7 +10308,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>691</v>
       </c>
@@ -10283,7 +10328,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>694</v>
       </c>
@@ -10303,7 +10348,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>694</v>
       </c>
@@ -10323,7 +10368,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>694</v>
       </c>
@@ -10343,7 +10388,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>694</v>
       </c>
@@ -10363,7 +10408,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>694</v>
       </c>
@@ -10383,7 +10428,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>694</v>
       </c>
@@ -10403,7 +10448,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>694</v>
       </c>
@@ -10423,7 +10468,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>694</v>
       </c>
@@ -10443,7 +10488,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>694</v>
       </c>
@@ -10463,7 +10508,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>694</v>
       </c>
@@ -10483,7 +10528,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>694</v>
       </c>
@@ -10503,7 +10548,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>694</v>
       </c>
@@ -10523,7 +10568,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>694</v>
       </c>
@@ -10543,7 +10588,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>694</v>
       </c>
@@ -10563,7 +10608,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>694</v>
       </c>
@@ -10583,7 +10628,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>694</v>
       </c>
@@ -10603,7 +10648,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>694</v>
       </c>
@@ -10623,7 +10668,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>694</v>
       </c>
@@ -10643,7 +10688,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>751</v>
       </c>
@@ -10663,7 +10708,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>755</v>
       </c>
@@ -10683,7 +10728,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>759</v>
       </c>
@@ -10703,7 +10748,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>763</v>
       </c>
@@ -10723,7 +10768,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>767</v>
       </c>
@@ -10743,7 +10788,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>771</v>
       </c>
@@ -10763,7 +10808,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>774</v>
       </c>
@@ -10783,7 +10828,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>777</v>
       </c>
@@ -10803,7 +10848,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>780</v>
       </c>
@@ -10823,7 +10868,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>783</v>
       </c>
@@ -10843,7 +10888,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>786</v>
       </c>
@@ -10863,7 +10908,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>789</v>
       </c>
@@ -10883,7 +10928,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>793</v>
       </c>
@@ -10903,7 +10948,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>796</v>
       </c>
@@ -10923,7 +10968,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>799</v>
       </c>
@@ -10943,7 +10988,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>801</v>
       </c>
@@ -10963,7 +11008,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>802</v>
       </c>
@@ -10983,7 +11028,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>804</v>
       </c>
@@ -11003,7 +11048,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>806</v>
       </c>
@@ -11023,7 +11068,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>806</v>
       </c>
@@ -11043,7 +11088,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>811</v>
       </c>
@@ -11063,7 +11108,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>814</v>
       </c>
@@ -11083,7 +11128,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>818</v>
       </c>
@@ -11103,7 +11148,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>821</v>
       </c>
@@ -11123,7 +11168,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>823</v>
       </c>
@@ -11143,7 +11188,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>825</v>
       </c>
@@ -11163,7 +11208,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>828</v>
       </c>
@@ -11183,7 +11228,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>828</v>
       </c>
@@ -11203,7 +11248,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>828</v>
       </c>
@@ -11223,7 +11268,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>837</v>
       </c>
@@ -11243,7 +11288,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>841</v>
       </c>
@@ -11263,7 +11308,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>841</v>
       </c>
@@ -11283,7 +11328,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>850</v>
       </c>
@@ -11303,7 +11348,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>850</v>
       </c>
@@ -11323,7 +11368,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>850</v>
       </c>
@@ -11343,7 +11388,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>860</v>
       </c>
@@ -11363,7 +11408,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>863</v>
       </c>
@@ -11383,7 +11428,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>869</v>
       </c>
@@ -11403,7 +11448,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>872</v>
       </c>
@@ -11423,7 +11468,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>872</v>
       </c>
@@ -11443,7 +11488,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>881</v>
       </c>
@@ -11463,7 +11508,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>884</v>
       </c>
@@ -11483,7 +11528,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>884</v>
       </c>
@@ -11503,7 +11548,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>884</v>
       </c>
@@ -11523,7 +11568,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>884</v>
       </c>
@@ -11543,7 +11588,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>884</v>
       </c>
@@ -11563,7 +11608,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>884</v>
       </c>
@@ -11583,7 +11628,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>904</v>
       </c>
@@ -11603,7 +11648,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>904</v>
       </c>
@@ -11623,7 +11668,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>10</v>
       </c>
@@ -11643,7 +11688,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>10</v>
       </c>
@@ -11663,7 +11708,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>918</v>
       </c>
@@ -11683,7 +11728,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>918</v>
       </c>
@@ -11703,7 +11748,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>918</v>
       </c>
@@ -11723,7 +11768,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>918</v>
       </c>
@@ -11743,7 +11788,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>930</v>
       </c>
@@ -11763,7 +11808,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>934</v>
       </c>
@@ -11783,7 +11828,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>934</v>
       </c>
@@ -11803,7 +11848,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>934</v>
       </c>
@@ -11823,7 +11868,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>942</v>
       </c>
@@ -11843,7 +11888,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>945</v>
       </c>
@@ -11863,7 +11908,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>948</v>
       </c>
@@ -11883,7 +11928,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>950</v>
       </c>
@@ -11903,7 +11948,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>953</v>
       </c>
@@ -11923,7 +11968,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>956</v>
       </c>
@@ -11943,7 +11988,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>22</v>
       </c>
@@ -11963,7 +12008,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>22</v>
       </c>
@@ -11983,7 +12028,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>22</v>
       </c>
@@ -12003,7 +12048,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>22</v>
       </c>
@@ -12023,7 +12068,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>970</v>
       </c>
@@ -12043,7 +12088,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>970</v>
       </c>
@@ -12063,7 +12108,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>970</v>
       </c>
@@ -12083,7 +12128,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>970</v>
       </c>
@@ -12103,7 +12148,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>970</v>
       </c>
@@ -12123,7 +12168,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>970</v>
       </c>
@@ -12143,7 +12188,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>970</v>
       </c>
@@ -12163,7 +12208,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>970</v>
       </c>
@@ -12183,7 +12228,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>970</v>
       </c>
@@ -12203,7 +12248,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>970</v>
       </c>
@@ -12223,7 +12268,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>970</v>
       </c>
@@ -12243,7 +12288,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>970</v>
       </c>
@@ -12263,7 +12308,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>970</v>
       </c>
@@ -12283,7 +12328,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12303,7 +12348,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12323,7 +12368,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12343,7 +12388,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12363,7 +12408,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12383,7 +12428,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12403,7 +12448,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12423,7 +12468,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12443,7 +12488,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>1036</v>
       </c>
@@ -12463,7 +12508,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>1041</v>
       </c>
@@ -12483,7 +12528,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1045</v>
       </c>
@@ -12503,7 +12548,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>1049</v>
       </c>
@@ -12523,7 +12568,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>1049</v>
       </c>
@@ -12543,7 +12588,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1055</v>
       </c>
@@ -12563,7 +12608,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1058</v>
       </c>
@@ -12583,7 +12628,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>1062</v>
       </c>
@@ -12603,7 +12648,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12623,7 +12668,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12643,7 +12688,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12663,7 +12708,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12683,7 +12728,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>1079</v>
       </c>
@@ -12703,7 +12748,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>1083</v>
       </c>
@@ -12723,7 +12768,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>1087</v>
       </c>
@@ -12743,7 +12788,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>1090</v>
       </c>
@@ -12763,7 +12808,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>1090</v>
       </c>
@@ -12783,7 +12828,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>1096</v>
       </c>
@@ -12803,7 +12848,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>1100</v>
       </c>
@@ -12823,7 +12868,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>1104</v>
       </c>
@@ -12843,7 +12888,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>1107</v>
       </c>
@@ -12863,7 +12908,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>1110</v>
       </c>
@@ -12883,7 +12928,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12903,7 +12948,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>1116</v>
       </c>
@@ -12923,7 +12968,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1118</v>
       </c>
@@ -12943,7 +12988,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>1122</v>
       </c>
@@ -12963,7 +13008,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>1126</v>
       </c>
@@ -12983,7 +13028,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13003,7 +13048,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13023,7 +13068,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13043,7 +13088,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1141</v>
       </c>
@@ -13063,7 +13108,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1141</v>
       </c>
@@ -13083,7 +13128,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1145</v>
       </c>
@@ -13103,7 +13148,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1148</v>
       </c>
@@ -13123,7 +13168,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1151</v>
       </c>
@@ -13143,7 +13188,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13163,7 +13208,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13183,7 +13228,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13203,7 +13248,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1161</v>
       </c>
@@ -13223,7 +13268,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1165</v>
       </c>
@@ -13243,7 +13288,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1169</v>
       </c>
@@ -13263,7 +13308,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1173</v>
       </c>
@@ -13283,7 +13328,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1177</v>
       </c>
@@ -13303,7 +13348,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1177</v>
       </c>
@@ -13323,7 +13368,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1186</v>
       </c>
@@ -13343,7 +13388,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1189</v>
       </c>
@@ -13363,7 +13408,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1192</v>
       </c>
@@ -13383,7 +13428,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1195</v>
       </c>
@@ -13403,7 +13448,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1198</v>
       </c>
@@ -13423,7 +13468,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1198</v>
       </c>
@@ -13443,7 +13488,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>1203</v>
       </c>
@@ -13463,7 +13508,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1206</v>
       </c>
@@ -13483,7 +13528,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1206</v>
       </c>
@@ -13503,7 +13548,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1212</v>
       </c>
@@ -13523,7 +13568,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1212</v>
       </c>
@@ -13543,7 +13588,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1221</v>
       </c>
@@ -13563,7 +13608,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1225</v>
       </c>
@@ -13583,7 +13628,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1225</v>
       </c>
@@ -13603,7 +13648,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1225</v>
       </c>
@@ -13623,7 +13668,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1237</v>
       </c>
@@ -13643,7 +13688,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1241</v>
       </c>
@@ -13663,7 +13708,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1245</v>
       </c>
@@ -13683,7 +13728,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1249</v>
       </c>
@@ -13703,7 +13748,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1252</v>
       </c>
@@ -13723,7 +13768,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1252</v>
       </c>
@@ -13743,7 +13788,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1252</v>
       </c>
@@ -13763,7 +13808,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>6</v>
       </c>
@@ -13783,7 +13828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>6</v>
       </c>
@@ -13803,7 +13848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>6</v>
       </c>
@@ -13823,7 +13868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>6</v>
       </c>
@@ -13843,7 +13888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>6</v>
       </c>
@@ -13863,7 +13908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>6</v>
       </c>
@@ -13883,7 +13928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13891,7 +13936,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13900,7 +13945,7 @@
       <c r="F464" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F462"/>
+  <autoFilter ref="A3:F462" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
